--- a/docs/cleaned_data/acknowledgments.xlsx
+++ b/docs/cleaned_data/acknowledgments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anis/Library/Mobile Documents/com~apple~CloudDocs/anzics_sprint_sari/cleaned_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F92AA8-55FC-C341-8E19-C0C3391A10D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F0BAED-C981-D948-8486-EFB5A262C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CD577878-960D-9546-8B70-5B10A9FC934C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
   <si>
     <t>ACT</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Patricia V. Alliegro</t>
+  </si>
+  <si>
+    <t>Nicole Ng</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,6 +932,9 @@
       <c r="C11" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1101,6 +1107,9 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
